--- a/static/import.xlsx
+++ b/static/import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\07_Python\00_djangoProject\getlink\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49CAEC3-975F-41E4-B08C-B86747A6152A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B28922-3828-4579-A296-82A4358A4396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -1144,7 +1144,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
